--- a/TGF-9-2-16.xlsx
+++ b/TGF-9-2-16.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterhiggins/Documents/Rcode/plater/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18240" windowHeight="11820"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="18240" windowHeight="11820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="COL1A1, GAPDH" sheetId="1" r:id="rId1"/>
     <sheet name="FN1, MYLK" sheetId="2" r:id="rId2"/>
     <sheet name="ACTA2" sheetId="3" r:id="rId3"/>
+    <sheet name="simulated raw file" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ACTA2!$A$1:$P$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COL1A1, GAPDH'!$A$1:$P$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'FN1, MYLK'!$A$1:$V$67</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="171">
   <si>
     <t>Target Name</t>
   </si>
@@ -456,6 +470,84 @@
   </si>
   <si>
     <t>SYBR 09-07-16</t>
+  </si>
+  <si>
+    <t>Block Type</t>
+  </si>
+  <si>
+    <t>96well</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>TAQMAN</t>
+  </si>
+  <si>
+    <t>Experiment File Name</t>
+  </si>
+  <si>
+    <t>D:\Applied Biosystems\StepOne Software v2.3\experiments\2017_PCR_data\TM_02_09_17.eds</t>
+  </si>
+  <si>
+    <t>Experiment Run End Time</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:57:33 PM PST</t>
+  </si>
+  <si>
+    <t>Instrument Type</t>
+  </si>
+  <si>
+    <t>steponeplus</t>
+  </si>
+  <si>
+    <t>Passive Reference</t>
+  </si>
+  <si>
+    <t>ROX</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>Sample Name</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
   </si>
 </sst>
 </file>
@@ -523,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -542,6 +634,8 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +699,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12181645875179554"/>
-          <c:y val="9.8124797822991314E-2"/>
-          <c:w val="0.84033568367535483"/>
-          <c:h val="0.76040921182370069"/>
+          <c:x val="0.121816458751796"/>
+          <c:y val="0.0981247978229913"/>
+          <c:w val="0.840335683675355"/>
+          <c:h val="0.760409211823701"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -627,8 +721,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3653031295701666E-2"/>
-                  <c:y val="0.32647184794762057"/>
+                  <c:x val="-0.0436530312957017"/>
+                  <c:y val="0.326471847947621"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -651,11 +745,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -663,8 +757,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.5626072922561614E-2"/>
-                  <c:y val="0.61942965940549166"/>
+                  <c:x val="-0.0256260729225616"/>
+                  <c:y val="0.619429659405492"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -687,11 +781,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -699,8 +793,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.002146014153957E-2"/>
-                  <c:y val="0.14337321578645132"/>
+                  <c:x val="-0.0600214601415396"/>
+                  <c:y val="0.143373215786451"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -723,11 +817,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -735,8 +829,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.9128835898881719E-2"/>
-                  <c:y val="0.33492255404736687"/>
+                  <c:x val="-0.0691288358988817"/>
+                  <c:y val="0.334922554047367"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -759,11 +853,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -771,8 +865,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.268152379175144E-2"/>
-                  <c:y val="0.28421831744888942"/>
+                  <c:x val="-0.0726815237917514"/>
+                  <c:y val="0.284218317448889"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -781,7 +875,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="da-DK"/>
                       <a:t>100nM B</a:t>
                     </a:r>
                   </a:p>
@@ -795,11 +889,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -807,8 +901,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9801382130476852E-2"/>
-                  <c:y val="0.45041553741056611"/>
+                  <c:x val="-0.0598013821304769"/>
+                  <c:y val="0.450415537410566"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -817,7 +911,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="da-DK"/>
                       <a:t>500nM B</a:t>
                     </a:r>
                   </a:p>
@@ -831,11 +925,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -843,8 +937,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.179780408797441E-2"/>
-                  <c:y val="0.34055635811386448"/>
+                  <c:x val="-0.0617978040879744"/>
+                  <c:y val="0.340556358113864"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -867,11 +961,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -879,8 +973,8 @@
               <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.8237874918611705E-2"/>
-                  <c:y val="0.36309157437985456"/>
+                  <c:x val="-0.0682378749186117"/>
+                  <c:y val="0.363091574379855"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -903,11 +997,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -915,8 +1009,8 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.0599234223178708E-2"/>
-                  <c:y val="0.57154232484026291"/>
+                  <c:x val="-0.0705992342231787"/>
+                  <c:y val="0.571542324840263"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -925,7 +1019,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+1uM A</a:t>
                     </a:r>
                   </a:p>
@@ -939,11 +1033,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -951,8 +1045,8 @@
               <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.1119848873004501E-2"/>
-                  <c:y val="0.68985221023671073"/>
+                  <c:x val="-0.0711198488730045"/>
+                  <c:y val="0.689852210236711"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -975,11 +1069,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -987,8 +1081,8 @@
               <c:idx val="22"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.3259466904121032E-2"/>
-                  <c:y val="0.63633107160498426"/>
+                  <c:x val="-0.083259466904121"/>
+                  <c:y val="0.636331071604984"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -997,7 +1091,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+100nM B</a:t>
                     </a:r>
                   </a:p>
@@ -1011,11 +1105,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1023,8 +1117,8 @@
               <c:idx val="24"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.7552847457879238E-2"/>
-                  <c:y val="0.66168318990422315"/>
+                  <c:x val="-0.0875528474578792"/>
+                  <c:y val="0.661683189904223"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1033,7 +1127,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+500nM B</a:t>
                     </a:r>
                   </a:p>
@@ -1047,11 +1141,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1059,8 +1153,8 @@
               <c:idx val="26"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9495605539069428E-2"/>
-                  <c:y val="0.61661275737224286"/>
+                  <c:x val="-0.0594956055390694"/>
+                  <c:y val="0.616612757372243"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1069,7 +1163,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+1uM B</a:t>
                     </a:r>
                   </a:p>
@@ -1083,11 +1177,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1095,8 +1189,8 @@
               <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.8762154154673935E-2"/>
-                  <c:y val="0.54337330450777521"/>
+                  <c:x val="-0.0487621541546739"/>
+                  <c:y val="0.543373304507775"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1105,7 +1199,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+5uM B</a:t>
                     </a:r>
                   </a:p>
@@ -1119,11 +1213,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-50A5-4D13-BE6E-AC551314AC70}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-50A5-4D13-BE6E-AC551314AC70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1153,94 +1247,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,94 +1346,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.6061859130859375</c:v>
+                  <c:v>1.606185913085937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6945018768310547</c:v>
+                  <c:v>1.694501876831055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3130397796630859</c:v>
+                  <c:v>1.313039779663086</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1259574890136719</c:v>
+                  <c:v>3.125957489013672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1277046203613281</c:v>
+                  <c:v>3.127704620361328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2641239166259766</c:v>
+                  <c:v>3.264123916625976</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12587165832519531</c:v>
+                  <c:v>0.125871658325195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28292274475097656</c:v>
+                  <c:v>0.282922744750977</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6869983673095703</c:v>
+                  <c:v>1.68699836730957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5801925659179687</c:v>
+                  <c:v>1.580192565917969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2838153839111328</c:v>
+                  <c:v>1.283815383911133</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1623191833496094</c:v>
+                  <c:v>1.162319183349609</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0164546966552734</c:v>
+                  <c:v>2.016454696655273</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4657268524169922</c:v>
+                  <c:v>1.465726852416992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2954635620117187</c:v>
+                  <c:v>1.295463562011719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9129714965820312</c:v>
+                  <c:v>1.912971496582031</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2868976593017578</c:v>
+                  <c:v>1.286897659301758</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.89611434936523438</c:v>
+                  <c:v>0.896114349365234</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8692588806152344</c:v>
+                  <c:v>2.869258880615234</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.5259017944335938</c:v>
+                  <c:v>2.525901794433594</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3724822998046875</c:v>
+                  <c:v>3.372482299804687</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.6533222198486328</c:v>
+                  <c:v>3.653322219848633</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.9078121185302734</c:v>
+                  <c:v>2.907812118530273</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.8593196868896484</c:v>
+                  <c:v>2.859319686889648</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.8663215637207031</c:v>
+                  <c:v>2.866321563720703</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.8440151214599609</c:v>
+                  <c:v>2.844015121459961</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3.1744384765625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4110374450683594</c:v>
+                  <c:v>2.411037445068359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.6274585723876953</c:v>
+                  <c:v>2.627458572387695</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.6395492553710937</c:v>
+                  <c:v>2.639549255371094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,11 +1453,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46827776"/>
-        <c:axId val="46858240"/>
+        <c:axId val="2144466736"/>
+        <c:axId val="2070737552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46827776"/>
+        <c:axId val="2144466736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,12 +1467,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="46858240"/>
+        <c:crossAx val="2070737552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46858240"/>
+        <c:axId val="2070737552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,7 +1506,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46827776"/>
+        <c:crossAx val="2144466736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1464,6 +1558,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1473,10 +1568,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12181645875179554"/>
-          <c:y val="9.8124797822991314E-2"/>
-          <c:w val="0.84033568367535483"/>
-          <c:h val="0.76040921182370069"/>
+          <c:x val="0.121816458751796"/>
+          <c:y val="0.0981247978229913"/>
+          <c:w val="0.840335683675355"/>
+          <c:h val="0.760409211823701"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1495,8 +1590,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.1239263168029496E-2"/>
-                  <c:y val="0.18962497274591822"/>
+                  <c:x val="-0.0312392631680295"/>
+                  <c:y val="0.189624972745918"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1519,11 +1614,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1531,8 +1626,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.597084094329845E-2"/>
-                  <c:y val="0.66168318990422315"/>
+                  <c:x val="-0.0359708409432984"/>
+                  <c:y val="0.661683189904223"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1555,11 +1650,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1567,8 +1662,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0021507467907007E-2"/>
-                  <c:y val="0.17154223611893893"/>
+                  <c:x val="-0.060021507467907"/>
+                  <c:y val="0.171542236118939"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1591,11 +1686,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1603,8 +1698,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.7404728612800858E-2"/>
-                  <c:y val="0.27858451338239171"/>
+                  <c:x val="-0.0774047286128009"/>
+                  <c:y val="0.278584513382392"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1627,11 +1722,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1639,8 +1734,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0267665504624791E-2"/>
-                  <c:y val="0.16826509221805305"/>
+                  <c:x val="-0.0602676655046248"/>
+                  <c:y val="0.168265092218053"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1649,7 +1744,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="da-DK"/>
                       <a:t>100nM B</a:t>
                     </a:r>
                   </a:p>
@@ -1663,11 +1758,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1675,8 +1770,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.8077277658282795E-2"/>
-                  <c:y val="0.36820303165199758"/>
+                  <c:x val="-0.0680772776582828"/>
+                  <c:y val="0.368203031651997"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1685,7 +1780,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="da-DK"/>
                       <a:t>500nM B</a:t>
                     </a:r>
                   </a:p>
@@ -1699,11 +1794,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1711,8 +1806,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.2142713665094421E-2"/>
-                  <c:y val="0.22571525467788725"/>
+                  <c:x val="-0.0721427136650944"/>
+                  <c:y val="0.225715254677887"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1735,11 +1830,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1747,8 +1842,8 @@
               <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.8237874918611705E-2"/>
-                  <c:y val="0.36309157437985456"/>
+                  <c:x val="-0.0682378749186117"/>
+                  <c:y val="0.363091574379855"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1771,11 +1866,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1783,8 +1878,8 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0254469739585648E-2"/>
-                  <c:y val="0.69266911226995942"/>
+                  <c:x val="-0.0602544697395856"/>
+                  <c:y val="0.69266911226996"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1793,7 +1888,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+1uM A</a:t>
                     </a:r>
                   </a:p>
@@ -1807,11 +1902,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1819,8 +1914,8 @@
               <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0774969360573951E-2"/>
-                  <c:y val="0.64759867973797935"/>
+                  <c:x val="-0.0607749693605739"/>
+                  <c:y val="0.647598679737979"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1843,11 +1938,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1855,8 +1950,8 @@
               <c:idx val="22"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.7397340613485779E-2"/>
-                  <c:y val="0.65323226200116713"/>
+                  <c:x val="-0.0273973406134858"/>
+                  <c:y val="0.653232262001167"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1865,7 +1960,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+100nM B</a:t>
                     </a:r>
                   </a:p>
@@ -1879,11 +1974,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1891,8 +1986,8 @@
               <c:idx val="24"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.5483954682810464E-2"/>
-                  <c:y val="0.70393672040295452"/>
+                  <c:x val="-0.0254839546828105"/>
+                  <c:y val="0.703936720402954"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1901,7 +1996,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+500nM B</a:t>
                     </a:r>
                   </a:p>
@@ -1915,11 +2010,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1927,8 +2022,8 @@
               <c:idx val="26"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.6335597954689001E-3"/>
-                  <c:y val="0.61379563353568445"/>
+                  <c:x val="-0.0036335597954689"/>
+                  <c:y val="0.613795633535685"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1937,7 +2032,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+1uM B</a:t>
                     </a:r>
                   </a:p>
@@ -1951,11 +2046,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1963,8 +2058,8 @@
               <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.0999732337753592E-3"/>
-                  <c:y val="0.54337330450777521"/>
+                  <c:x val="0.00709997323377536"/>
+                  <c:y val="0.543373304507775"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1973,7 +2068,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+5uM B</a:t>
                     </a:r>
                   </a:p>
@@ -1987,11 +2082,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-C6BF-4D36-9D81-FDFD50AF0CD0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2021,94 +2116,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,94 +2215,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-0.89423942565917969</c:v>
+                  <c:v>-0.89423942565918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.94349288940429688</c:v>
+                  <c:v>-0.943492889404297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.2178459167480469</c:v>
+                  <c:v>-1.217845916748047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2084617614746094</c:v>
+                  <c:v>2.20846176147461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8976631164550781</c:v>
+                  <c:v>1.897663116455078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3791828155517578</c:v>
+                  <c:v>2.379182815551758</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0147743225097656</c:v>
+                  <c:v>-1.014774322509766</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.97818565368652344</c:v>
+                  <c:v>-0.978185653686523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.54400253295898438</c:v>
+                  <c:v>-0.544002532958984</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.86005020141601563</c:v>
+                  <c:v>-0.860050201416016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.0532093048095703</c:v>
+                  <c:v>-1.05320930480957</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-1.170684814453125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.4894943237304688E-2</c:v>
+                  <c:v>-0.0348949432373047</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.68626213073730469</c:v>
+                  <c:v>-0.686262130737305</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.2125988006591797</c:v>
+                  <c:v>-1.21259880065918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.51503753662109375</c:v>
+                  <c:v>-0.515037536621094</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.63675308227539063</c:v>
+                  <c:v>-0.636753082275391</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.7236480712890625</c:v>
+                  <c:v>-1.723648071289062</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4650363922119141</c:v>
+                  <c:v>2.465036392211914</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2794952392578125</c:v>
+                  <c:v>2.279495239257812</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9426212310791016</c:v>
+                  <c:v>1.942621231079102</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6702461242675781</c:v>
+                  <c:v>1.670246124267578</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7642955780029297</c:v>
+                  <c:v>1.76429557800293</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9007396697998047</c:v>
+                  <c:v>1.900739669799805</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.8486232757568359</c:v>
+                  <c:v>1.848623275756836</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7459239959716797</c:v>
+                  <c:v>1.74592399597168</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.8951454162597656</c:v>
+                  <c:v>1.895145416259766</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6444568634033203</c:v>
+                  <c:v>1.64445686340332</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97847747802734375</c:v>
+                  <c:v>0.978477478027344</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.93625068664550781</c:v>
+                  <c:v>0.936250686645508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2227,11 +2322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48249472"/>
-        <c:axId val="48292224"/>
+        <c:axId val="2146896512"/>
+        <c:axId val="2146898832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48249472"/>
+        <c:axId val="2146896512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,12 +2336,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="48292224"/>
-        <c:crossesAt val="-2"/>
+        <c:crossAx val="2146898832"/>
+        <c:crossesAt val="-2.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48292224"/>
+        <c:axId val="2146898832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2273,13 +2368,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48249472"/>
+        <c:crossAx val="2146896512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2331,6 +2427,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2340,10 +2437,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12181645875179554"/>
-          <c:y val="9.8124797822991314E-2"/>
-          <c:w val="0.84033568367535483"/>
-          <c:h val="0.76040921182370069"/>
+          <c:x val="0.121816458751796"/>
+          <c:y val="0.0981247978229913"/>
+          <c:w val="0.840335683675355"/>
+          <c:h val="0.760409211823701"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2362,8 +2459,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.1584091315997357E-2"/>
-                  <c:y val="0.42342784150556551"/>
+                  <c:x val="-0.0415840913159974"/>
+                  <c:y val="0.423427841505566"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2386,11 +2483,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2398,8 +2495,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0108772202485592E-2"/>
-                  <c:y val="0.62788036550523796"/>
+                  <c:x val="-0.0401087722024856"/>
+                  <c:y val="0.627880365505238"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2422,11 +2519,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2434,8 +2531,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.4159438727094148E-2"/>
-                  <c:y val="0.10526452373617039"/>
+                  <c:x val="-0.0641594387270941"/>
+                  <c:y val="0.10526452373617"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2458,11 +2555,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2470,8 +2567,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.7404728612800941E-2"/>
-                  <c:y val="0.56872542280701399"/>
+                  <c:x val="-0.0774047286128009"/>
+                  <c:y val="0.568725422807014"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2494,11 +2591,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2506,8 +2603,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.6129734245437643E-2"/>
-                  <c:y val="0.43868768740993397"/>
+                  <c:x val="-0.0561297342454376"/>
+                  <c:y val="0.438687687409934"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2516,7 +2613,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="da-DK"/>
                       <a:t>100nM B</a:t>
                     </a:r>
                   </a:p>
@@ -2530,11 +2627,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2542,8 +2639,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.5663483880721364E-2"/>
-                  <c:y val="0.53721715364692324"/>
+                  <c:x val="-0.0556634838807214"/>
+                  <c:y val="0.537217153646923"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2552,7 +2649,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="da-DK"/>
                       <a:t>500nM B</a:t>
                     </a:r>
                   </a:p>
@@ -2566,11 +2663,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2578,8 +2675,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.4556507442655846E-2"/>
-                  <c:y val="0.4933207260332097"/>
+                  <c:x val="-0.0845565074426558"/>
+                  <c:y val="0.49332072603321"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2602,11 +2699,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2614,8 +2711,8 @@
               <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.8237874918611705E-2"/>
-                  <c:y val="0.36309157437985456"/>
+                  <c:x val="-0.0682378749186117"/>
+                  <c:y val="0.363091574379855"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2638,11 +2735,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2650,8 +2747,8 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.5082054036494925E-2"/>
-                  <c:y val="0.45260872853692535"/>
+                  <c:x val="-0.0250820540364949"/>
+                  <c:y val="0.452608728536925"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2660,7 +2757,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+1uM A</a:t>
                     </a:r>
                   </a:p>
@@ -2674,11 +2771,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2686,8 +2783,8 @@
               <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.043014121260609E-2"/>
-                  <c:y val="0.67295079803721813"/>
+                  <c:x val="-0.0504301412126061"/>
+                  <c:y val="0.672950798037218"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2710,11 +2807,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2722,8 +2819,8 @@
               <c:idx val="22"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.4983546835924346E-2"/>
-                  <c:y val="0.61097873150243576"/>
+                  <c:x val="-0.0149835468359243"/>
+                  <c:y val="0.610978731502436"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2732,7 +2829,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+100nM B</a:t>
                     </a:r>
                   </a:p>
@@ -2746,11 +2843,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2758,8 +2855,8 @@
               <c:idx val="24"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.8632640164683146E-3"/>
-                  <c:y val="0.61819909464325029"/>
+                  <c:x val="-0.00686326401646831"/>
+                  <c:y val="0.61819909464325"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2768,7 +2865,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+500nM B</a:t>
                     </a:r>
                   </a:p>
@@ -2782,11 +2879,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2794,8 +2891,8 @@
               <c:idx val="26"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.0437146371824402E-4"/>
-                  <c:y val="0.58844351523644567"/>
+                  <c:x val="0.000504371463718244"/>
+                  <c:y val="0.588443515236446"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2804,7 +2901,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+1uM B</a:t>
                     </a:r>
                   </a:p>
@@ -2818,11 +2915,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2830,8 +2927,8 @@
               <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.9858595159304651E-2"/>
-                  <c:y val="0.60252824720599918"/>
+                  <c:x val="0.0298585951593046"/>
+                  <c:y val="0.602528247205999"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2840,7 +2937,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+5uM B</a:t>
                     </a:r>
                   </a:p>
@@ -2854,11 +2951,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-5269-42CB-AF5D-A6610EAF90A8}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-5269-42CB-AF5D-A6610EAF90A8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2888,94 +2985,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2987,94 +3084,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-3.6480026245117187</c:v>
+                  <c:v>-3.648002624511719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.8221645355224609</c:v>
+                  <c:v>-3.822164535522461</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.7932472229003906</c:v>
+                  <c:v>-3.79324722290039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.1421108245849609</c:v>
+                  <c:v>-2.142110824584961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.9229965209960937</c:v>
+                  <c:v>-1.922996520996094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.0823745727539062</c:v>
+                  <c:v>-2.082374572753906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.8008670806884766</c:v>
+                  <c:v>-5.800867080688476</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.8952293395996094</c:v>
+                  <c:v>-5.89522933959961</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.0251579284667969</c:v>
+                  <c:v>-3.025157928466797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.7184772491455078</c:v>
+                  <c:v>-3.718477249145508</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.5123996734619141</c:v>
+                  <c:v>-3.512399673461914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.4884757995605469</c:v>
+                  <c:v>-3.488475799560547</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-3.043914794921875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.4474868774414062</c:v>
+                  <c:v>-3.447486877441406</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.6008529663085937</c:v>
+                  <c:v>-3.600852966308594</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.4297256469726562</c:v>
+                  <c:v>-3.429725646972656</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.5100212097167969</c:v>
+                  <c:v>-4.510021209716797</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.4990100860595703</c:v>
+                  <c:v>-4.49901008605957</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.4833869934082031</c:v>
+                  <c:v>-3.483386993408203</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.9768295288085937</c:v>
+                  <c:v>-3.976829528808594</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.2900753021240234</c:v>
+                  <c:v>-2.290075302124023</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.1567401885986328</c:v>
+                  <c:v>-2.156740188598633</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.2470722198486328</c:v>
+                  <c:v>-2.247072219848633</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.2540321350097656</c:v>
+                  <c:v>-2.254032135009766</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.5912990570068359</c:v>
+                  <c:v>-2.591299057006836</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.3941783905029297</c:v>
+                  <c:v>-2.39417839050293</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.3910655975341797</c:v>
+                  <c:v>-2.39106559753418</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.4595623016357422</c:v>
+                  <c:v>-2.459562301635742</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.8288936614990234</c:v>
+                  <c:v>-2.828893661499023</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.7241783142089844</c:v>
+                  <c:v>-2.724178314208984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3094,11 +3191,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48008192"/>
-        <c:axId val="48009984"/>
+        <c:axId val="2146381472"/>
+        <c:axId val="2106160048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48008192"/>
+        <c:axId val="2146381472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3108,15 +3205,15 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="48009984"/>
+        <c:crossAx val="2106160048"/>
         <c:crossesAt val="-6.5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48009984"/>
+        <c:axId val="2106160048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-1"/>
+          <c:max val="-1.0"/>
           <c:min val="-6.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3142,13 +3239,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48008192"/>
+        <c:crossAx val="2146381472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3200,6 +3298,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3209,10 +3308,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12181645875179554"/>
-          <c:y val="9.8124797822991314E-2"/>
-          <c:w val="0.84033568367535483"/>
-          <c:h val="0.76040921182370069"/>
+          <c:x val="0.121816458751796"/>
+          <c:y val="0.0981247978229913"/>
+          <c:w val="0.840335683675355"/>
+          <c:h val="0.760409211823701"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3231,8 +3330,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.1928919463965217E-2"/>
-                  <c:y val="0.49385039233678435"/>
+                  <c:x val="-0.0519289194639652"/>
+                  <c:y val="0.493850392336784"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3255,11 +3354,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3267,8 +3366,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6315669091266311E-2"/>
-                  <c:y val="0.67013367420065972"/>
+                  <c:x val="-0.0463156690912663"/>
+                  <c:y val="0.67013367420066"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3291,11 +3390,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3303,8 +3402,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.6228404356687726E-2"/>
-                  <c:y val="0.28836315589733968"/>
+                  <c:x val="-0.0662284043566877"/>
+                  <c:y val="0.28836315589734"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3327,11 +3426,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3339,8 +3438,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.5680591131175154E-2"/>
-                  <c:y val="0.45692280291068049"/>
+                  <c:x val="-0.0856805911311752"/>
+                  <c:y val="0.456922802910681"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3363,11 +3462,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3375,8 +3474,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.9922837356656931E-2"/>
-                  <c:y val="0.31513304095221051"/>
+                  <c:x val="-0.0499228373566569"/>
+                  <c:y val="0.31513304095221"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3385,7 +3484,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="da-DK"/>
                       <a:t>100nM B</a:t>
                     </a:r>
                   </a:p>
@@ -3399,11 +3498,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3411,8 +3510,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.7387621362347074E-2"/>
-                  <c:y val="0.51042774990079842"/>
+                  <c:x val="-0.0473876213623471"/>
+                  <c:y val="0.510427749900798"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3421,7 +3520,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="da-DK"/>
                       <a:t>500nM B</a:t>
                     </a:r>
                   </a:p>
@@ -3435,11 +3534,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3447,8 +3546,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.2487538554848686E-2"/>
-                  <c:y val="0.42972217582836325"/>
+                  <c:x val="-0.0224875385548487"/>
+                  <c:y val="0.429722175828363"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3471,11 +3570,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3483,8 +3582,8 @@
               <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5134457514768264E-2"/>
-                  <c:y val="0.41379581097833223"/>
+                  <c:x val="-0.0351344575147683"/>
+                  <c:y val="0.413795810978332"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3507,11 +3606,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3519,8 +3618,8 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.3013088406901354E-2"/>
-                  <c:y val="0.59063670636280496"/>
+                  <c:x val="-0.0230130884069014"/>
+                  <c:y val="0.590636706362805"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3529,7 +3628,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+1uM A</a:t>
                     </a:r>
                   </a:p>
@@ -3543,11 +3642,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3555,8 +3654,8 @@
               <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.8016347435044659E-2"/>
-                  <c:y val="0.72183203323323353"/>
+                  <c:x val="-0.0380163474350447"/>
+                  <c:y val="0.721832033233234"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3579,11 +3678,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3591,8 +3690,8 @@
               <c:idx val="22"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.2914581206330775E-2"/>
-                  <c:y val="0.70393649859964491"/>
+                  <c:x val="-0.0129145812063308"/>
+                  <c:y val="0.703936498599645"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3601,7 +3700,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+100nM B</a:t>
                     </a:r>
                   </a:p>
@@ -3615,11 +3714,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3627,8 +3726,8 @@
               <c:idx val="24"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.5505297610931176E-3"/>
-                  <c:y val="0.69425544954096696"/>
+                  <c:x val="0.00555052976109312"/>
+                  <c:y val="0.694255449540967"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3637,7 +3736,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+500nM B</a:t>
                     </a:r>
                   </a:p>
@@ -3651,11 +3750,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3663,8 +3762,8 @@
               <c:idx val="26"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.6423027229053884E-3"/>
-                  <c:y val="0.72365481283238609"/>
+                  <c:x val="0.00464230272290539"/>
+                  <c:y val="0.723654812832386"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3673,7 +3772,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+1uM B</a:t>
                     </a:r>
                   </a:p>
@@ -3687,11 +3786,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3699,8 +3798,8 @@
               <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.3306870122556075E-2"/>
-                  <c:y val="0.69548601430320822"/>
+                  <c:x val="0.0133068701225561"/>
+                  <c:y val="0.695486014303208"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3709,7 +3808,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="mr-IN"/>
                       <a:t>T+5uM B</a:t>
                     </a:r>
                   </a:p>
@@ -3723,11 +3822,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-AEAC-4582-9652-DC2194FFE909}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-AEAC-4582-9652-DC2194FFE909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3757,94 +3856,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3856,94 +3955,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-3.5482120513916016</c:v>
+                  <c:v>-3.548212051391602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.1103668212890625</c:v>
+                  <c:v>-4.110366821289062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.1380214691162109</c:v>
+                  <c:v>-4.138021469116211</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.7027816772460937</c:v>
+                  <c:v>-2.702781677246093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.6574993133544922</c:v>
+                  <c:v>-2.657499313354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.8667201995849609</c:v>
+                  <c:v>-2.866720199584961</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.1102771759033203</c:v>
+                  <c:v>-5.11027717590332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.2001438140869141</c:v>
+                  <c:v>-5.200143814086914</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.0430431365966797</c:v>
+                  <c:v>-4.04304313659668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.2864398956298828</c:v>
+                  <c:v>-4.286439895629882</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.5184917449951172</c:v>
+                  <c:v>-4.518491744995117</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.8475723266601562</c:v>
+                  <c:v>-3.847572326660156</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-3.61529541015625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.2467193603515625</c:v>
+                  <c:v>-4.246719360351562</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.1175365447998047</c:v>
+                  <c:v>-4.117536544799805</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.1068820953369141</c:v>
+                  <c:v>-4.106882095336914</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.3691520690917969</c:v>
+                  <c:v>-4.369152069091797</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.7231044769287109</c:v>
+                  <c:v>-4.723104476928711</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.0543956756591797</c:v>
+                  <c:v>-3.05439567565918</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.4507427215576172</c:v>
+                  <c:v>-3.450742721557617</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.5752086639404297</c:v>
+                  <c:v>-2.57520866394043</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.4725475311279297</c:v>
+                  <c:v>-2.47254753112793</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-2.4222412109375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.6550807952880859</c:v>
+                  <c:v>-2.655080795288086</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.6142597198486328</c:v>
+                  <c:v>-2.614259719848633</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.2285327911376953</c:v>
+                  <c:v>-2.228532791137695</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.6266765594482422</c:v>
+                  <c:v>-2.626676559448242</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.5495338439941406</c:v>
+                  <c:v>-2.549533843994141</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.9618129730224609</c:v>
+                  <c:v>-2.961812973022461</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.4770221710205078</c:v>
+                  <c:v>-2.477022171020508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3963,11 +4062,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48087040"/>
-        <c:axId val="48088576"/>
+        <c:axId val="2146408176"/>
+        <c:axId val="2105844192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48087040"/>
+        <c:axId val="2146408176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3977,16 +4076,16 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="48088576"/>
-        <c:crossesAt val="-6"/>
+        <c:crossAx val="2105844192"/>
+        <c:crossesAt val="-6.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48088576"/>
+        <c:axId val="2105844192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-2"/>
-          <c:min val="-6"/>
+          <c:max val="-2.0"/>
+          <c:min val="-6.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4011,13 +4110,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48087040"/>
+        <c:crossAx val="2146408176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4218,12 +4318,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -4253,12 +4353,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -4462,24 +4562,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
-    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>124</v>
       </c>
@@ -4512,7 +4612,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4550,7 +4650,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4589,7 +4689,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4628,7 +4728,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -4645,7 +4745,7 @@
         <v>0.31809645908720346</v>
       </c>
       <c r="F5" s="3">
-        <v>22.932571411132813</v>
+        <v>22.932571411132812</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -4667,7 +4767,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4706,7 +4806,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -4745,7 +4845,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -4784,7 +4884,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -4823,7 +4923,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4864,7 +4964,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4888,7 +4988,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>1.5801925659179687</v>
+        <v>1.5801925659179688</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>130</v>
@@ -4905,7 +5005,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -4946,7 +5046,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -4987,7 +5087,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -5028,7 +5128,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -5069,7 +5169,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -5093,7 +5193,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
-        <v>1.2954635620117187</v>
+        <v>1.2954635620117188</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -5103,7 +5203,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -5141,7 +5241,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -5183,7 +5283,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -5225,7 +5325,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -5267,7 +5367,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -5309,7 +5409,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -5351,7 +5451,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -5393,7 +5493,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -5435,7 +5535,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -5479,7 +5579,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -5523,7 +5623,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -5567,7 +5667,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -5611,7 +5711,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -5655,7 +5755,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -5699,7 +5799,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -5723,7 +5823,7 @@
       </c>
       <c r="H31" s="3">
         <f t="shared" si="0"/>
-        <v>2.6395492553710937</v>
+        <v>2.6395492553710938</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -5733,7 +5833,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -5762,7 +5862,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -5791,7 +5891,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -5820,7 +5920,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -5851,7 +5951,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -5882,7 +5982,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -5913,7 +6013,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -5944,7 +6044,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -5975,7 +6075,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -6006,7 +6106,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -6037,7 +6137,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -6068,7 +6168,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -6099,7 +6199,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -6130,7 +6230,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -6161,7 +6261,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -6192,7 +6292,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -6223,7 +6323,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -6254,7 +6354,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -6285,7 +6385,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -6316,7 +6416,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -6347,7 +6447,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -6378,7 +6478,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -6409,7 +6509,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -6440,7 +6540,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -6471,7 +6571,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -6502,7 +6602,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -6533,7 +6633,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -6564,7 +6664,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -6595,7 +6695,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -6626,7 +6726,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -6657,7 +6757,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -6688,7 +6788,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -6719,7 +6819,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -6750,7 +6850,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -6779,7 +6879,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -6808,7 +6908,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -6839,7 +6939,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -6870,7 +6970,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
@@ -6901,7 +7001,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -6932,7 +7032,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -6963,7 +7063,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
@@ -6994,7 +7094,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -7025,7 +7125,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -7056,7 +7156,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
@@ -7087,7 +7187,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -7118,7 +7218,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>85</v>
       </c>
@@ -7149,7 +7249,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>86</v>
       </c>
@@ -7180,7 +7280,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
@@ -7211,7 +7311,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -7242,7 +7342,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>89</v>
       </c>
@@ -7273,7 +7373,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>90</v>
       </c>
@@ -7304,7 +7404,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>91</v>
       </c>
@@ -7335,7 +7435,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>92</v>
       </c>
@@ -7366,7 +7466,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>93</v>
       </c>
@@ -7406,22 +7506,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A92" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>139</v>
       </c>
@@ -7450,7 +7550,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -7485,7 +7585,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7521,7 +7621,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -7557,7 +7657,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7593,7 +7693,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7629,7 +7729,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7665,7 +7765,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7701,7 +7801,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7737,7 +7837,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7775,7 +7875,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7799,7 +7899,7 @@
       </c>
       <c r="H11" s="14">
         <f t="shared" si="0"/>
-        <v>-0.86005020141601563</v>
+        <v>-0.86005020141601562</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>130</v>
@@ -7813,7 +7913,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -7851,7 +7951,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -7889,7 +7989,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -7906,7 +8006,7 @@
         <v>0.56196151574452713</v>
       </c>
       <c r="F14" s="14">
-        <v>27.481796264648437</v>
+        <v>27.481796264648438</v>
       </c>
       <c r="G14" s="1">
         <v>6</v>
@@ -7927,7 +8027,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -7965,7 +8065,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -7996,7 +8096,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -8031,7 +8131,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -8055,7 +8155,7 @@
       </c>
       <c r="H18" s="14">
         <f t="shared" si="0"/>
-        <v>-0.63675308227539063</v>
+        <v>-0.63675308227539062</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="8" t="s">
@@ -8070,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -8109,7 +8209,7 @@
         <v>4.2029119352089548E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -8148,7 +8248,7 @@
         <v>9.3689428449751373E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -8187,7 +8287,7 @@
         <v>4.0727325979956954E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -8226,7 +8326,7 @@
         <v>3.6462489407907157E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -8265,7 +8365,7 @@
         <v>2.4468558482603508E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -8304,7 +8404,7 @@
         <v>4.8623042065225452E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -8345,7 +8445,7 @@
         <v>0.35871184437731873</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -8386,7 +8486,7 @@
         <v>0.18667065184489931</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -8427,7 +8527,7 @@
         <v>0.17975297897506348</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -8468,7 +8568,7 @@
         <v>0.14482202497959903</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -8509,7 +8609,7 @@
         <v>0.15119131118330029</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -8550,7 +8650,7 @@
         <v>7.098028864168029E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -8577,7 +8677,7 @@
         <v>0.93625068664550781</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -8600,7 +8700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -8623,7 +8723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -8652,7 +8752,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -8676,7 +8776,7 @@
       </c>
       <c r="H35" s="14">
         <f>F69-F35</f>
-        <v>-3.6480026245117187</v>
+        <v>-3.6480026245117188</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>127</v>
@@ -8687,7 +8787,7 @@
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -8723,7 +8823,7 @@
       </c>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -8759,7 +8859,7 @@
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -8795,7 +8895,7 @@
       </c>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -8819,7 +8919,7 @@
       </c>
       <c r="H39" s="14">
         <f t="shared" si="1"/>
-        <v>-1.9229965209960937</v>
+        <v>-1.9229965209960938</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>131</v>
@@ -8831,7 +8931,7 @@
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -8867,7 +8967,7 @@
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -8903,7 +9003,7 @@
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -8939,7 +9039,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -8977,7 +9077,7 @@
       </c>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -9015,7 +9115,7 @@
       </c>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -9053,7 +9153,7 @@
       </c>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -9070,7 +9170,7 @@
         <v>0.34741642708168896</v>
       </c>
       <c r="F46" s="14">
-        <v>29.516464233398437</v>
+        <v>29.516464233398438</v>
       </c>
       <c r="G46" s="1">
         <v>5</v>
@@ -9091,7 +9191,7 @@
       </c>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -9129,7 +9229,7 @@
       </c>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -9167,7 +9267,7 @@
       </c>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -9191,14 +9291,14 @@
       </c>
       <c r="H49" s="14">
         <f t="shared" si="1"/>
-        <v>-3.6008529663085937</v>
+        <v>-3.6008529663085938</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -9233,7 +9333,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -9272,7 +9372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -9311,7 +9411,7 @@
         <v>3.0708626666100283E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -9350,7 +9450,7 @@
         <v>1.6581548266824543E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -9374,7 +9474,7 @@
       </c>
       <c r="H54" s="14">
         <f t="shared" si="1"/>
-        <v>-3.9768295288085937</v>
+        <v>-3.9768295288085938</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>131</v>
@@ -9389,7 +9489,7 @@
         <v>4.3607263763006086E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -9428,7 +9528,7 @@
         <v>6.1421922086180034E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -9467,7 +9567,7 @@
         <v>8.1361021600843584E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -9506,7 +9606,7 @@
         <v>8.9588824131737094E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -9547,7 +9647,7 @@
         <v>3.655189241851339E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -9588,7 +9688,7 @@
         <v>0.17334832646224455</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -9629,7 +9729,7 @@
         <v>9.724173031756668E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -9670,7 +9770,7 @@
         <v>2.8686192726738169E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -9711,7 +9811,7 @@
         <v>2.3653095136866711E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -9752,7 +9852,7 @@
         <v>4.3530113758624587E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -9779,7 +9879,7 @@
         <v>-2.7241783142089844</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -9802,7 +9902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -9825,7 +9925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -9848,7 +9948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>124</v>
       </c>
@@ -9871,7 +9971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>42</v>
       </c>
@@ -9894,7 +9994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>44</v>
       </c>
@@ -9917,7 +10017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>45</v>
       </c>
@@ -9940,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>46</v>
       </c>
@@ -9963,7 +10063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>47</v>
       </c>
@@ -9986,7 +10086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>48</v>
       </c>
@@ -10009,7 +10109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>49</v>
       </c>
@@ -10032,7 +10132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>50</v>
       </c>
@@ -10055,7 +10155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>51</v>
       </c>
@@ -10078,7 +10178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
@@ -10101,7 +10201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>53</v>
       </c>
@@ -10124,7 +10224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>54</v>
       </c>
@@ -10147,7 +10247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>55</v>
       </c>
@@ -10170,7 +10270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
@@ -10193,7 +10293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>57</v>
       </c>
@@ -10216,7 +10316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>58</v>
       </c>
@@ -10239,7 +10339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>59</v>
       </c>
@@ -10262,7 +10362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>60</v>
       </c>
@@ -10285,7 +10385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>61</v>
       </c>
@@ -10308,7 +10408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>62</v>
       </c>
@@ -10331,7 +10431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>63</v>
       </c>
@@ -10354,7 +10454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>64</v>
       </c>
@@ -10377,7 +10477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>65</v>
       </c>
@@ -10400,7 +10500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>66</v>
       </c>
@@ -10423,7 +10523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>67</v>
       </c>
@@ -10446,7 +10546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>68</v>
       </c>
@@ -10469,7 +10569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>69</v>
       </c>
@@ -10492,7 +10592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>70</v>
       </c>
@@ -10515,7 +10615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>71</v>
       </c>
@@ -10538,7 +10638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>72</v>
       </c>
@@ -10561,7 +10661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>73</v>
       </c>
@@ -10582,7 +10682,7 @@
       </c>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>74</v>
       </c>
@@ -10612,18 +10712,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -10656,7 +10756,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -10694,7 +10794,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -10733,7 +10833,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -10772,7 +10872,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -10799,7 +10899,7 @@
       </c>
       <c r="I5" s="14">
         <f t="shared" si="0"/>
-        <v>-2.7027816772460937</v>
+        <v>-2.7027816772460938</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>130</v>
@@ -10811,7 +10911,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -10850,7 +10950,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -10889,7 +10989,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -10928,7 +11028,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -10967,7 +11067,7 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -11008,7 +11108,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -11049,7 +11149,7 @@
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -11090,7 +11190,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -11131,7 +11231,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -11172,7 +11272,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -11213,7 +11313,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -11247,7 +11347,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -11285,7 +11385,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -11327,7 +11427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -11369,7 +11469,7 @@
         <v>1.0872365169277403E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -11411,7 +11511,7 @@
         <v>1.3656316248396273E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -11453,7 +11553,7 @@
         <v>1.1982029464482197E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -11495,7 +11595,7 @@
         <v>1.750652237736109E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -11537,7 +11637,7 @@
         <v>4.693768764143554E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -11579,7 +11679,7 @@
         <v>1.3718844083428626E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -11623,7 +11723,7 @@
         <v>5.6770605465236851E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -11667,7 +11767,7 @@
         <v>9.4749873584204475E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -11711,7 +11811,7 @@
         <v>0.18664293426703629</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -11755,7 +11855,7 @@
         <v>0.1478574469369853</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -11799,7 +11899,7 @@
         <v>0.174158733926464</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -11843,7 +11943,7 @@
         <v>0.91535413138127508</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -11873,7 +11973,7 @@
         <v>-2.4770221710205078</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -11896,12 +11996,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -11921,7 +12021,7 @@
         <v>27.447132110595703</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -11941,7 +12041,7 @@
         <v>27.018379211425781</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -11961,7 +12061,7 @@
         <v>26.250808715820312</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -11981,7 +12081,7 @@
         <v>26.058528900146484</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -12001,7 +12101,7 @@
         <v>26.038595199584961</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -12021,7 +12121,7 @@
         <v>25.969409942626953</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -12041,7 +12141,7 @@
         <v>26.589216232299805</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -12061,7 +12161,7 @@
         <v>26.6685791015625</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -12081,7 +12181,7 @@
         <v>26.751615524291992</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -12101,7 +12201,7 @@
         <v>26.645254135131836</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -12121,7 +12221,7 @@
         <v>26.307300567626953</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -12141,7 +12241,7 @@
         <v>26.027988433837891</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -12161,7 +12261,7 @@
         <v>27.446901321411133</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -12181,7 +12281,7 @@
         <v>27.021413803100586</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -12201,7 +12301,7 @@
         <v>25.854085922241211</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -12221,7 +12321,7 @@
         <v>27.623443603515625</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -12241,7 +12341,7 @@
         <v>27.9522705078125</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -12261,7 +12361,7 @@
         <v>26.163196563720703</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -12281,7 +12381,7 @@
         <v>26.379392623901367</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -12301,7 +12401,7 @@
         <v>26.374273300170898</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -12321,7 +12421,7 @@
         <v>26.340503692626953</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -12341,7 +12441,7 @@
         <v>25.52655029296875</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -12361,7 +12461,7 @@
         <v>25.534795761108398</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -12381,7 +12481,7 @@
         <v>25.724761962890625</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -12401,7 +12501,7 @@
         <v>25.344240188598633</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -12421,7 +12521,7 @@
         <v>25.47972297668457</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -12441,7 +12541,7 @@
         <v>26.274456024169922</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -12461,7 +12561,7 @@
         <v>26.348711013793945</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -12481,7 +12581,7 @@
         <v>25.76954460144043</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -12501,7 +12601,7 @@
         <v>26.193435668945312</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -12521,7 +12621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -12546,4 +12646,1848 @@
   <pageSetup scale="57" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F9" s="3">
+        <v>25.840946197509766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F10" s="3">
+        <v>25.323877334594727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F11" s="3">
+        <v>24.937768936157227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F12" s="3">
+        <v>22.932571411132812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F13" s="3">
+        <v>22.910890579223633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F14" s="3">
+        <v>22.705286026000977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F15" s="3">
+        <v>26.463344573974609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F16" s="3">
+        <v>26.385656356811523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F17" s="3">
+        <v>25.064617156982422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F18" s="3">
+        <v>25.065061569213867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F19" s="3">
+        <v>25.02348518371582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F20" s="3">
+        <v>24.865669250488281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F21" s="3">
+        <v>25.430446624755859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F22" s="3">
+        <v>25.555686950683594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F23" s="3">
+        <v>24.558622360229492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F24" s="3">
+        <v>25.710472106933594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F25" s="3">
+        <v>26.665372848510742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F26" s="3">
+        <v>25.267082214355469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F27" s="3">
+        <v>23.510133743286133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F28" s="3">
+        <v>23.848371505737305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F29" s="3">
+        <v>22.968021392822266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F30" s="3">
+        <v>21.873228073120117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F31" s="3">
+        <v>22.626983642578125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F32" s="3">
+        <v>22.865442276000977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F33" s="3">
+        <v>22.47791862487793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F34" s="3">
+        <v>22.635707855224609</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F35" s="3">
+        <v>23.100017547607422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F36" s="3">
+        <v>23.937673568725586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F37" s="3">
+        <v>23.142086029052734</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F38" s="3">
+        <v>23.553886413574219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.31809645908720346</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F45" s="3">
+        <v>27.447132110595703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F46" s="3">
+        <v>27.018379211425781</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F47" s="3">
+        <v>26.250808715820312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F48" s="3">
+        <v>26.058528900146484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F49" s="3">
+        <v>26.038595199584961</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F50" s="3">
+        <v>25.969409942626953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F51" s="3">
+        <v>26.589216232299805</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F52" s="3">
+        <v>26.6685791015625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F53" s="3">
+        <v>26.751615524291992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F54" s="3">
+        <v>26.645254135131836</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F55" s="3">
+        <v>26.307300567626953</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F56" s="3">
+        <v>26.027988433837891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F57" s="3">
+        <v>27.446901321411133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F58" s="3">
+        <v>27.021413803100586</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F59" s="3">
+        <v>25.854085922241211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F60" s="3">
+        <v>27.623443603515625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F61" s="3">
+        <v>27.9522705078125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F62" s="3">
+        <v>26.163196563720703</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F63" s="3">
+        <v>26.379392623901367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F64" s="3">
+        <v>26.374273300170898</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F65" s="3">
+        <v>26.340503692626953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F66" s="3">
+        <v>25.52655029296875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F67" s="3">
+        <v>25.534795761108398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F68" s="3">
+        <v>25.724761962890625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F69" s="3">
+        <v>25.344240188598633</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F70" s="3">
+        <v>25.47972297668457</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F71" s="3">
+        <v>26.274456024169922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F72" s="3">
+        <v>26.348711013793945</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F73" s="3">
+        <v>25.76954460144043</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F74" s="3">
+        <v>26.193435668945312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.35964359574972238</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>